--- a/dev/logicModule/chessboard.xlsx
+++ b/dev/logicModule/chessboard.xlsx
@@ -25,192 +25,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2 , 1</t>
+  </si>
+  <si>
+    <t>3 , 1</t>
+  </si>
+  <si>
+    <t>4 , 1</t>
+  </si>
+  <si>
+    <t>7 , 1</t>
+  </si>
+  <si>
+    <t>8 , 1</t>
+  </si>
+  <si>
+    <t>9 , 1</t>
+  </si>
+  <si>
+    <t>0 , 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 , 2</t>
+  </si>
+  <si>
+    <t>3 , 2</t>
+  </si>
+  <si>
+    <t>4 , 2</t>
+  </si>
+  <si>
+    <t>7 , 2</t>
+  </si>
+  <si>
+    <t>8 , 2</t>
+  </si>
+  <si>
+    <t>9 , 2</t>
+  </si>
+  <si>
+    <t>0 , 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 , 3</t>
+  </si>
+  <si>
+    <t>3 , 3</t>
+  </si>
+  <si>
+    <t>4 , 3</t>
+  </si>
+  <si>
+    <t>7 , 3</t>
+  </si>
+  <si>
+    <t>8 , 3</t>
+  </si>
+  <si>
+    <t>9 , 3</t>
+  </si>
+  <si>
+    <t>0 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 , 0</t>
+  </si>
+  <si>
+    <t>11 , 1</t>
+  </si>
+  <si>
+    <t>11 , 2</t>
+  </si>
+  <si>
+    <t>11 , 3</t>
+  </si>
+  <si>
+    <t>11 , 4</t>
+  </si>
+  <si>
     <t>0 , 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>6 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 , 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 , 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 , 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 , 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 , 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 , 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 , 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 , 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 , 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 , 0</t>
-  </si>
-  <si>
-    <t>1 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 , 0</t>
-  </si>
-  <si>
-    <t>2 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3 , 0</t>
-  </si>
-  <si>
-    <t>3 , 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 , 0</t>
-  </si>
-  <si>
-    <t>4 , 1</t>
-  </si>
-  <si>
-    <t>5 , 0</t>
-  </si>
-  <si>
-    <t>5 , 1</t>
-  </si>
-  <si>
-    <t>6 , 0</t>
-  </si>
-  <si>
-    <t>6 , 1</t>
-  </si>
-  <si>
-    <t>7 , 0</t>
-  </si>
-  <si>
-    <t>7 , 1</t>
-  </si>
-  <si>
-    <t>8 , 0</t>
-  </si>
-  <si>
-    <t>8 , 1</t>
-  </si>
-  <si>
-    <t>9 , 0</t>
-  </si>
-  <si>
-    <t>9 , 1</t>
-  </si>
-  <si>
-    <t>10 , 0</t>
-  </si>
-  <si>
-    <t>10 , 1</t>
-  </si>
-  <si>
-    <t>0 , 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 , 2</t>
-  </si>
-  <si>
-    <t>2 , 2</t>
-  </si>
-  <si>
-    <t>3 , 2</t>
-  </si>
-  <si>
-    <t>4 , 2</t>
-  </si>
-  <si>
-    <t>5 , 2</t>
-  </si>
-  <si>
-    <t>6 , 2</t>
-  </si>
-  <si>
-    <t>7 , 2</t>
-  </si>
-  <si>
-    <t>8 , 2</t>
-  </si>
-  <si>
-    <t>9 , 2</t>
-  </si>
-  <si>
-    <t>10 , 2</t>
-  </si>
-  <si>
-    <t>0 , 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 , 3</t>
-  </si>
-  <si>
-    <t>2 , 3</t>
-  </si>
-  <si>
-    <t>3 , 3</t>
-  </si>
-  <si>
-    <t>4 , 3</t>
-  </si>
-  <si>
-    <t>5 , 3</t>
-  </si>
-  <si>
-    <t>6 , 3</t>
-  </si>
-  <si>
-    <t>7 , 3</t>
-  </si>
-  <si>
-    <t>8 , 3</t>
-  </si>
-  <si>
-    <t>9 , 3</t>
-  </si>
-  <si>
-    <t>10 , 3</t>
-  </si>
-  <si>
-    <t>0 , 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 , 4</t>
-  </si>
-  <si>
-    <t>2 , 4</t>
-  </si>
-  <si>
-    <t>3 , 4</t>
-  </si>
-  <si>
-    <t>4 , 4</t>
-  </si>
-  <si>
-    <t>5 , 4</t>
-  </si>
-  <si>
-    <t>6 , 4</t>
-  </si>
-  <si>
-    <t>7 , 4</t>
-  </si>
-  <si>
-    <t>8 , 4</t>
-  </si>
-  <si>
-    <t>9 , 4</t>
-  </si>
-  <si>
-    <t>10 , 4</t>
-  </si>
-  <si>
-    <t>11 , 0</t>
-  </si>
-  <si>
-    <t>11 , 1</t>
-  </si>
-  <si>
-    <t>11 , 2</t>
-  </si>
-  <si>
-    <t>11 , 3</t>
-  </si>
-  <si>
-    <t>11 , 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +257,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,8 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,204 +674,204 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
